--- a/www/IndicatorsPerCountry/India_GDPperCapita_TerritorialRef_1949_2012_CCode_356.xlsx
+++ b/www/IndicatorsPerCountry/India_GDPperCapita_TerritorialRef_1949_2012_CCode_356.xlsx
@@ -417,13 +417,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/India_GDPperCapita_TerritorialRef_1949_2012_CCode_356.xlsx
+++ b/www/IndicatorsPerCountry/India_GDPperCapita_TerritorialRef_1949_2012_CCode_356.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="143">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,358 +36,376 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>793</t>
+    <t>1264</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>657</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>689</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>709</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>713</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>676</t>
-  </si>
-  <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>674</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>716</t>
-  </si>
-  <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>821</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>868</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
-    <t>853</t>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>931</t>
   </si>
   <si>
     <t>843</t>
   </si>
   <si>
-    <t>897</t>
-  </si>
-  <si>
-    <t>889</t>
-  </si>
-  <si>
-    <t>937</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>977</t>
+    <t>910</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>991</t>
   </si>
   <si>
     <t>985</t>
   </si>
   <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t>1079</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1216</t>
-  </si>
-  <si>
-    <t>1270</t>
-  </si>
-  <si>
-    <t>1308.82002384</t>
-  </si>
-  <si>
-    <t>1304.64684137</t>
-  </si>
-  <si>
-    <t>1350.32185389</t>
-  </si>
-  <si>
-    <t>1401.47391414</t>
-  </si>
-  <si>
-    <t>1464.23607597</t>
-  </si>
-  <si>
-    <t>1542.54497849</t>
-  </si>
-  <si>
-    <t>1635.40694689</t>
-  </si>
-  <si>
-    <t>1674.98919485</t>
-  </si>
-  <si>
-    <t>1755.05207124</t>
-  </si>
-  <si>
-    <t>1835.29741697</t>
-  </si>
-  <si>
-    <t>1882.37683792</t>
-  </si>
-  <si>
-    <t>1956.78320337</t>
-  </si>
-  <si>
-    <t>1996.51534927</t>
-  </si>
-  <si>
-    <t>2129.7305353</t>
-  </si>
-  <si>
-    <t>2273.19524853</t>
-  </si>
-  <si>
-    <t>2423.78814024</t>
-  </si>
-  <si>
-    <t>2612.36347658</t>
-  </si>
-  <si>
-    <t>2810.00817796</t>
-  </si>
-  <si>
-    <t>2951.61247078</t>
-  </si>
-  <si>
-    <t>3154.1236852</t>
-  </si>
-  <si>
-    <t>3371.6009977</t>
+    <t>995</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>1329</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>1690</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2087</t>
+  </si>
+  <si>
+    <t>2062.31019389649</t>
+  </si>
+  <si>
+    <t>2115.25744288865</t>
+  </si>
+  <si>
+    <t>2176.42775467962</t>
+  </si>
+  <si>
+    <t>2254.89885653093</t>
+  </si>
+  <si>
+    <t>2355.96321394946</t>
+  </si>
+  <si>
+    <t>2475.56805896638</t>
+  </si>
+  <si>
+    <t>2514.02171069605</t>
+  </si>
+  <si>
+    <t>2611.78138047992</t>
+  </si>
+  <si>
+    <t>2707.74063394365</t>
+  </si>
+  <si>
+    <t>2753.08550705882</t>
+  </si>
+  <si>
+    <t>2837.85553114995</t>
+  </si>
+  <si>
+    <t>2870.92363332569</t>
+  </si>
+  <si>
+    <t>3035.92251602408</t>
+  </si>
+  <si>
+    <t>3212.51103363416</t>
+  </si>
+  <si>
+    <t>3396.64870230215</t>
+  </si>
+  <si>
+    <t>3629.41107589385</t>
+  </si>
+  <si>
+    <t>3870.69894569603</t>
+  </si>
+  <si>
+    <t>4030.65437807005</t>
+  </si>
+  <si>
+    <t>4270.70779382876</t>
+  </si>
+  <si>
+    <t>4525.74547680769</t>
+  </si>
+  <si>
+    <t>4768</t>
+  </si>
+  <si>
+    <t>4932</t>
+  </si>
+  <si>
+    <t>5172</t>
+  </si>
+  <si>
+    <t>5458</t>
+  </si>
+  <si>
+    <t>5794</t>
+  </si>
+  <si>
+    <t>6125</t>
   </si>
   <si>
     <t>Description</t>
@@ -4755,7 +4773,7 @@
         <v>1850.0</v>
       </c>
       <c r="E252" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253">
@@ -7476,6 +7494,108 @@
       </c>
       <c r="E412" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E413" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E414" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E415" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E416" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E417" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E418" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7493,50 +7613,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
